--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -101,6 +101,72 @@
     <t>Học vần</t>
   </si>
   <si>
+    <t>Tạ Nguyễn Hướng Dương</t>
+  </si>
+  <si>
+    <t>Tập đọc</t>
+  </si>
+  <si>
+    <t>Đào Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hà</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Mỹ Trang</t>
+  </si>
+  <si>
+    <t>Phan Thị Đức</t>
+  </si>
+  <si>
+    <t>Lê Thị Diễm Lệ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Mai Anh Tùng</t>
+  </si>
+  <si>
+    <t>Trần Quang Phú</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Quốc Danh</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Diễm</t>
+  </si>
+  <si>
+    <t>Trần Công Đức</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Trần Văn Thành</t>
+  </si>
+  <si>
+    <t>Võ Thị Hồng Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Anh văn</t>
+  </si>
+  <si>
+    <t>Võ Thị Thanh Khiết</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Xuân Duyên</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
     <t>Trịnh Thị Lệ Hoa</t>
   </si>
   <si>
@@ -110,115 +176,73 @@
     <t>Đỗ Thị Phân</t>
   </si>
   <si>
-    <t>Tạ Nguyễn Hướng Dương</t>
-  </si>
-  <si>
-    <t>Tập đọc</t>
-  </si>
-  <si>
-    <t>Đào Thị Ngọc</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc Thạch</t>
-  </si>
-  <si>
-    <t>Trần Thị Thu Hà</t>
-  </si>
-  <si>
-    <t>Nguyễn Công Mỹ Trang</t>
-  </si>
-  <si>
-    <t>Phan Thị Đức</t>
-  </si>
-  <si>
-    <t>Lê Thị Diễm Lệ</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Nga</t>
-  </si>
-  <si>
-    <t>Mai Anh Tùng</t>
-  </si>
-  <si>
-    <t>Trần Quang Phú</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Quốc Danh</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Diễm</t>
-  </si>
-  <si>
-    <t>Trần Công Đức</t>
-  </si>
-  <si>
-    <t>Âm nhạc</t>
-  </si>
-  <si>
-    <t>Trần Văn Thành</t>
-  </si>
-  <si>
-    <t>Võ Thị Hồng Phương</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
+    <t>Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Luyện từ và câu</t>
+  </si>
+  <si>
+    <t>Kể chuyện</t>
+  </si>
+  <si>
+    <t>Tập viết</t>
   </si>
   <si>
     <t>Lê Xuân Phong</t>
   </si>
   <si>
+    <t>Tập làm văn</t>
+  </si>
+  <si>
     <t>Lê Mỹ Duyên</t>
   </si>
   <si>
-    <t>Toán</t>
-  </si>
-  <si>
-    <t>Luyện từ và câu</t>
-  </si>
-  <si>
-    <t>Kể chuyện</t>
-  </si>
-  <si>
-    <t>Tập viết</t>
-  </si>
-  <si>
-    <t>Tập làm văn</t>
-  </si>
-  <si>
     <t>Thứ 2 Chiều</t>
   </si>
   <si>
     <t>Thứ 3 Sáng</t>
   </si>
   <si>
+    <t>Đạo đức</t>
+  </si>
+  <si>
+    <t>Thứ 3 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 4 Sáng</t>
+  </si>
+  <si>
+    <t>Tự nhiên và Xã hội</t>
+  </si>
+  <si>
+    <t>Thủ công</t>
+  </si>
+  <si>
+    <t>Thể dục</t>
+  </si>
+  <si>
+    <t>Mỹ thuật</t>
+  </si>
+  <si>
     <t>Sinh hoạt lớp</t>
   </si>
   <si>
-    <t>Đạo đức</t>
+    <t>Thứ 4 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 5 Sáng</t>
   </si>
   <si>
     <t>Chào cờ</t>
   </si>
   <si>
-    <t>Tự nhiên và Xã hội</t>
-  </si>
-  <si>
-    <t>Mỹ thuật</t>
-  </si>
-  <si>
     <t>Chính tả</t>
   </si>
   <si>
-    <t>Thủ công</t>
-  </si>
-  <si>
-    <t>Thể dục</t>
-  </si>
-  <si>
-    <t>Thứ 3 Chiều</t>
-  </si>
-  <si>
-    <t>Thứ 4 Sáng</t>
+    <t>Thứ 5 Chiều</t>
+  </si>
+  <si>
+    <t>Thứ 6 Sáng</t>
   </si>
   <si>
     <t>Khoa học</t>
@@ -228,30 +252,6 @@
   </si>
   <si>
     <t>Địa lý</t>
-  </si>
-  <si>
-    <t>Kỹ thuật</t>
-  </si>
-  <si>
-    <t>Thứ 4 Chiều</t>
-  </si>
-  <si>
-    <t>Thứ 5 Sáng</t>
-  </si>
-  <si>
-    <t>Anh văn</t>
-  </si>
-  <si>
-    <t>Võ Thị Thanh Khiết</t>
-  </si>
-  <si>
-    <t>Huỳnh Thị Xuân Duyên</t>
-  </si>
-  <si>
-    <t>Thứ 5 Chiều</t>
-  </si>
-  <si>
-    <t>Thứ 6 Sáng</t>
   </si>
   <si>
     <t>Thứ 6 Chiều</t>
@@ -677,13 +677,13 @@
     <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="6" max="6" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="1"/>
     <col min="7" max="7" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="8" max="8" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="9" max="9" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="10" max="10" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="11" max="11" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="12" max="12" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="12" max="12" width="15.281982" bestFit="true" customWidth="true" style="1"/>
     <col min="13" max="13" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="14" max="14" width="25.85083" bestFit="true" customWidth="true" style="1"/>
     <col min="15" max="15" width="22.280273" bestFit="true" customWidth="true" style="1"/>
@@ -691,31 +691,31 @@
     <col min="17" max="17" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="24.708252" bestFit="true" customWidth="true" style="1"/>
     <col min="19" max="19" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="20" max="20" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="20" max="20" width="15.281982" bestFit="true" customWidth="true" style="1"/>
     <col min="21" max="21" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="23" max="23" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="24" max="24" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="25" max="25" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="26" max="26" width="24.708252" bestFit="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="15.281982" bestFit="true" customWidth="true" style="1"/>
     <col min="27" max="27" width="22.280273" bestFit="true" customWidth="true" style="1"/>
-    <col min="28" max="28" width="24.708252" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="29" max="29" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="30" max="30" width="24.708252" bestFit="true" customWidth="true" style="1"/>
+    <col min="30" max="30" width="19.995117" bestFit="true" customWidth="true" style="1"/>
     <col min="31" max="31" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="32" max="32" width="24.708252" bestFit="true" customWidth="true" style="1"/>
+    <col min="32" max="32" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="33" max="33" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="34" max="34" width="24.708252" bestFit="true" customWidth="true" style="1"/>
-    <col min="35" max="35" width="9.283447" bestFit="true" customWidth="true" style="1"/>
-    <col min="36" max="36" width="17.567139" bestFit="true" customWidth="true" style="1"/>
+    <col min="34" max="34" width="16.424561" bestFit="true" customWidth="true" style="1"/>
+    <col min="35" max="35" width="10.568848" bestFit="true" customWidth="true" style="1"/>
+    <col min="36" max="36" width="24.708252" bestFit="true" customWidth="true" style="1"/>
     <col min="37" max="37" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="38" max="38" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="39" max="39" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="40" max="40" width="22.280273" bestFit="true" customWidth="true" style="1"/>
+    <col min="40" max="40" width="21.137695" bestFit="true" customWidth="true" style="1"/>
     <col min="41" max="41" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="42" max="42" width="22.280273" bestFit="true" customWidth="true" style="1"/>
     <col min="43" max="43" width="18.709717" bestFit="true" customWidth="true" style="1"/>
-    <col min="44" max="44" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="44" max="44" width="24.708252" bestFit="true" customWidth="true" style="1"/>
     <col min="45" max="45" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="46" max="46" width="9.10" bestFit="true" style="1"/>
     <col min="47" max="47" width="9.10" bestFit="true" style="1"/>
@@ -1120,131 +1120,119 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="O7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="5" t="s">
+      <c r="S7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="5" t="s">
+      <c r="U7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R7" s="5" t="s">
+      <c r="W7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="5" t="s">
+      <c r="AA7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="5" t="s">
+      <c r="AC7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AE7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AG7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AI7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AG7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AK7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AM7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AO7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AK7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AP7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AM7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AQ7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR7" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="AS7" s="5"/>
     </row>
@@ -1254,126 +1242,130 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="S8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="U8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R8" s="5" t="s">
+      <c r="W8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="X8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="5" t="s">
+      <c r="AA8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AE8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AG8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AI8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AE8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="AS8" s="5"/>
     </row>
@@ -1383,126 +1375,126 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="O9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="5" t="s">
+      <c r="S9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="U9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R9" s="5" t="s">
+      <c r="W9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="5" t="s">
+      <c r="Y9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="V9" s="5" t="s">
+      <c r="AA9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X9" s="5" t="s">
+      <c r="AC9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AE9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AG9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH9" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH9" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM9" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="AO9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR9" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="AS9" s="5"/>
     </row>
@@ -1512,126 +1504,126 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="O10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="5" t="s">
+      <c r="S10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="U10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="5" t="s">
+      <c r="W10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="AA10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="AD10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" s="5" t="s">
+      <c r="AF10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Z10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AH10" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH10" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AN10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="AO10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR10" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="AS10" s="5"/>
     </row>
@@ -1641,142 +1633,154 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="5" t="s">
+      <c r="S11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="5" t="s">
+      <c r="U11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="R11" s="5" t="s">
+      <c r="W11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V11" s="5" t="s">
+      <c r="AA11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X11" s="5" t="s">
+      <c r="AC11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AE11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AG11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH11" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AP11" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ11" s="5" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AR11" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS11" s="5"/>
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1820,12 +1824,24 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1869,12 +1885,24 @@
       <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1918,12 +1946,24 @@
       <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1967,12 +2007,24 @@
       <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2013,132 +2065,132 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="X17" s="5" t="s">
+      <c r="AD17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AE17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AG17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH17" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ17" s="5" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AR17" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS17" s="5"/>
     </row>
@@ -2148,126 +2200,126 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="K18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="5" t="s">
+      <c r="M18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="5" t="s">
+      <c r="O18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N18" s="5" t="s">
+      <c r="S18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P18" s="5" t="s">
+      <c r="U18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R18" s="5" t="s">
+      <c r="W18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T18" s="5" t="s">
+      <c r="Y18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V18" s="5" t="s">
+      <c r="AA18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X18" s="5" t="s">
+      <c r="AC18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z18" s="5" t="s">
+      <c r="AE18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AG18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH18" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH18" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR18" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR18" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="AS18" s="5"/>
     </row>
@@ -2277,126 +2329,126 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="M19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="5" t="s">
+      <c r="O19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="S19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="U19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="5" t="s">
+      <c r="W19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T19" s="5" t="s">
+      <c r="Y19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V19" s="5" t="s">
+      <c r="AA19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" s="5" t="s">
+      <c r="AC19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AE19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB19" s="5" t="s">
+      <c r="AG19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH19" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH19" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AR19" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS19" s="5"/>
     </row>
@@ -2405,123 +2457,127 @@
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="M20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="O20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" s="5" t="s">
+      <c r="S20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="5" t="s">
+      <c r="U20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="5" t="s">
+      <c r="W20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="5" t="s">
+      <c r="Y20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V20" s="5" t="s">
+      <c r="AA20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X20" s="5" t="s">
+      <c r="AC20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z20" s="5" t="s">
+      <c r="AE20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB20" s="5" t="s">
+      <c r="AG20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH20" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH20" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AR20" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS20" s="5"/>
     </row>
@@ -2530,129 +2586,133 @@
       <c r="B21" s="6">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="5" t="s">
+      <c r="M21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="O21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21" s="5" t="s">
+      <c r="S21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="U21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="5" t="s">
+      <c r="W21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T21" s="5" t="s">
+      <c r="Y21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" s="5" t="s">
+      <c r="AA21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X21" s="5" t="s">
+      <c r="AC21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB21" s="5" t="s">
+      <c r="AG21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH21" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ21" s="5" t="s">
         <v>58</v>
       </c>
       <c r="AR21" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS21" s="5"/>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2899,128 +2959,132 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="M27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L27" s="5" t="s">
+      <c r="O27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="S27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" s="5" t="s">
+      <c r="U27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R27" s="5" t="s">
+      <c r="W27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T27" s="5" t="s">
+      <c r="Y27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="V27" s="5" t="s">
+      <c r="AA27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X27" s="5" t="s">
+      <c r="AC27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z27" s="5" t="s">
+      <c r="AE27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA27" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB27" s="5" t="s">
+      <c r="AG27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH27" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG27" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH27" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AL27" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM27" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AN27" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO27" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AP27" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ27" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AR27" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS27" s="5"/>
     </row>
@@ -3029,123 +3093,127 @@
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="M28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="L28" s="5" t="s">
+      <c r="O28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="5" t="s">
+      <c r="S28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" s="5" t="s">
+      <c r="U28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="R28" s="5" t="s">
+      <c r="W28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="T28" s="5" t="s">
+      <c r="Y28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V28" s="5" t="s">
+      <c r="AA28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="X28" s="5" t="s">
+      <c r="AC28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z28" s="5" t="s">
+      <c r="AE28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB28" s="5" t="s">
+      <c r="AG28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH28" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH28" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AL28" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM28" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AN28" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO28" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AP28" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ28" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AR28" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS28" s="5"/>
     </row>
@@ -3154,123 +3222,127 @@
       <c r="B29" s="6">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="M29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="O29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N29" s="5" t="s">
+      <c r="S29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" s="5" t="s">
+      <c r="U29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29" s="5" t="s">
+      <c r="W29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="5" t="s">
+      <c r="Y29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="V29" s="5" t="s">
+      <c r="AA29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="X29" s="5" t="s">
+      <c r="AC29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z29" s="5" t="s">
+      <c r="AE29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA29" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB29" s="5" t="s">
+      <c r="AG29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH29" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE29" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH29" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AN29" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AP29" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ29" s="5" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="AR29" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS29" s="5"/>
     </row>
@@ -3279,123 +3351,127 @@
       <c r="B30" s="6">
         <v>4</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="M30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="5" t="s">
+      <c r="O30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="S30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P30" s="5" t="s">
+      <c r="U30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R30" s="5" t="s">
+      <c r="W30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="5" t="s">
+      <c r="Y30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="V30" s="5" t="s">
+      <c r="AA30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="X30" s="5" t="s">
+      <c r="AC30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z30" s="5" t="s">
+      <c r="AE30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB30" s="5" t="s">
+      <c r="AG30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH30" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH30" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AL30" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM30" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AN30" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO30" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AP30" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ30" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="AR30" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS30" s="5"/>
     </row>
@@ -3404,129 +3480,133 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="M31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="5" t="s">
+      <c r="O31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31" s="5" t="s">
+      <c r="S31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" s="5" t="s">
+      <c r="U31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="R31" s="5" t="s">
+      <c r="W31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="X31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S31" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="T31" s="5" t="s">
+      <c r="Y31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="V31" s="5" t="s">
+      <c r="AA31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="5" t="s">
+      <c r="AC31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z31" s="5" t="s">
+      <c r="AE31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB31" s="5" t="s">
+      <c r="AG31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH31" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF31" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH31" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM31" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO31" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AP31" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ31" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AR31" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS31" s="5"/>
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3773,128 +3853,132 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="5" t="s">
+      <c r="M37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L37" s="5" t="s">
+      <c r="O37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N37" s="5" t="s">
+      <c r="S37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="P37" s="5" t="s">
+      <c r="U37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R37" s="5" t="s">
+      <c r="W37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S37" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T37" s="5" t="s">
+      <c r="Y37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z37" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V37" s="5" t="s">
+      <c r="AA37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="W37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="X37" s="5" t="s">
+      <c r="AC37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Y37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z37" s="5" t="s">
+      <c r="AE37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB37" s="5" t="s">
+      <c r="AG37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH37" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="AC37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH37" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AL37" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM37" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AN37" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO37" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AP37" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ37" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AR37" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS37" s="5"/>
     </row>
@@ -3903,103 +3987,127 @@
       <c r="B38" s="6">
         <v>2</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="K38" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N38" s="5" t="s">
+      <c r="S38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" s="5" t="s">
+      <c r="U38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V38" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R38" s="5" t="s">
+      <c r="W38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T38" s="5" t="s">
+      <c r="Y38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="AA38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="AC38" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AH38" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM38" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AN38" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AO38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AP38" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AQ38" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AR38" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AS38" s="5"/>
     </row>
@@ -4010,58 +4118,122 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="G39" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB39" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="AC39" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH39" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AM39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR39" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS39" s="5"/>
     </row>
     <row r="40" spans="1:69">
@@ -4071,58 +4243,122 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="I40" s="5" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB40" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="AC40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="AE40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH40" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="AM40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR40" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS40" s="5"/>
     </row>
     <row r="41" spans="1:69" customHeight="1" ht="15.75">
@@ -4132,63 +4368,127 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="K41" s="5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AE41" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="AG41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH41" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
+      <c r="AK41" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="AM41" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AN41" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="AO41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR41" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS41" s="5"/>
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -4435,65 +4735,129 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="M47" s="5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA47" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="AE47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
+      <c r="AH47" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI47" s="5"/>
       <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
+      <c r="AK47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL47" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="AM47" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="AO47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP47" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR47" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS47" s="5"/>
     </row>
     <row r="48" spans="1:69">
@@ -4503,58 +4867,122 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="O48" s="5" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF48" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="AG48" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AH48" s="5" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AI48" s="5"/>
       <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
+      <c r="AK48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM48" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN48" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="AO48" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="AQ48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR48" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS48" s="5"/>
     </row>
     <row r="49" spans="1:69">
@@ -4564,58 +4992,122 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="Q49" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Y49" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC49" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
+      <c r="AD49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH49" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI49" s="5"/>
       <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
+      <c r="AK49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN49" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="AO49" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="AQ49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR49" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS49" s="5"/>
     </row>
     <row r="50" spans="1:69">
@@ -4625,58 +5117,122 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="S50" s="5" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="Y50" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="AA50" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH50" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
+      <c r="AK50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN50" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO50" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ50" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR50" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS50" s="5"/>
     </row>
     <row r="51" spans="1:69" customHeight="1" ht="15.75">
@@ -4686,58 +5242,122 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="U51" s="5" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="Y51" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z51" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="AA51" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB51" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH51" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="AI51" s="5"/>
       <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
+      <c r="AK51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AP51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR51" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="AS51" s="5"/>
     </row>
     <row r="52" spans="1:69">
@@ -4994,128 +5614,48 @@
       <c r="B57" s="6">
         <v>1</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S57" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="T57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V57" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA57" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD57" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH57" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
       <c r="AI57" s="5"/>
       <c r="AJ57" s="5"/>
-      <c r="AK57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN57" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP57" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR57" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
+      <c r="AR57" s="5"/>
       <c r="AS57" s="5"/>
     </row>
     <row r="58" spans="1:69">
@@ -5123,128 +5663,48 @@
       <c r="B58" s="6">
         <v>2</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P58" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S58" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="T58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB58" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD58" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH58" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
       <c r="AI58" s="5"/>
       <c r="AJ58" s="5"/>
-      <c r="AK58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR58" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="5"/>
       <c r="AS58" s="5"/>
     </row>
     <row r="59" spans="1:69">
@@ -5252,128 +5712,48 @@
       <c r="B59" s="6">
         <v>3</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P59" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T59" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z59" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB59" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD59" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH59" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
       <c r="AI59" s="5"/>
       <c r="AJ59" s="5"/>
-      <c r="AK59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR59" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
+      <c r="AR59" s="5"/>
       <c r="AS59" s="5"/>
     </row>
     <row r="60" spans="1:69">
@@ -5381,128 +5761,48 @@
       <c r="B60" s="6">
         <v>4</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P60" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T60" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V60" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB60" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD60" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH60" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
       <c r="AJ60" s="5"/>
-      <c r="AK60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL60" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ60" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR60" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="5"/>
       <c r="AS60" s="5"/>
     </row>
     <row r="61" spans="1:69" customHeight="1" ht="15.75">
@@ -5510,128 +5810,48 @@
       <c r="B61" s="6">
         <v>5</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="V61" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB61" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD61" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH61" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+      <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
       <c r="AI61" s="5"/>
       <c r="AJ61" s="5"/>
-      <c r="AK61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL61" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP61" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ61" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR61" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
+      <c r="AR61" s="5"/>
       <c r="AS61" s="5"/>
     </row>
     <row r="62" spans="1:69">

--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -1824,24 +1824,12 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1885,24 +1873,12 @@
       <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1946,24 +1922,12 @@
       <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2007,24 +1971,12 @@
       <c r="B16" s="6">
         <v>5</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>

--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>Thứ</t>
   </si>
@@ -29,30 +29,60 @@
     <t>1B</t>
   </si>
   <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
     <t>2A</t>
   </si>
   <si>
     <t>2B</t>
   </si>
   <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>2Đ</t>
+  </si>
+  <si>
     <t>3A</t>
   </si>
   <si>
     <t>3B</t>
   </si>
   <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
     <t>4A</t>
   </si>
   <si>
     <t>4B</t>
   </si>
   <si>
+    <t>4C</t>
+  </si>
+  <si>
     <t>5A</t>
   </si>
   <si>
     <t>5B</t>
   </si>
   <si>
+    <t>5C</t>
+  </si>
+  <si>
+    <t>5D</t>
+  </si>
+  <si>
     <t>Giáo viên nghỉ</t>
   </si>
   <si>
@@ -65,18 +95,150 @@
     <t>Thứ 2 Sáng</t>
   </si>
   <si>
+    <t>Chào cờ</t>
+  </si>
+  <si>
+    <t>Lệ-Hoa</t>
+  </si>
+  <si>
+    <t>Thị-Ngân</t>
+  </si>
+  <si>
+    <t>Thị-Phân</t>
+  </si>
+  <si>
+    <t>Hướng-Dương</t>
+  </si>
+  <si>
+    <t>Thị-Ngọc</t>
+  </si>
+  <si>
+    <t>Ngọc-Thạch</t>
+  </si>
+  <si>
+    <t>Thu-Hà</t>
+  </si>
+  <si>
+    <t>Mỹ-Trang</t>
+  </si>
+  <si>
+    <t>Thị-Đức</t>
+  </si>
+  <si>
+    <t>Quốc-Danh</t>
+  </si>
+  <si>
+    <t>Thị-Diễm</t>
+  </si>
+  <si>
+    <t>Hồng-Phương</t>
+  </si>
+  <si>
+    <t>Thanh-Tùng</t>
+  </si>
+  <si>
+    <t>Xuân-Phong</t>
+  </si>
+  <si>
+    <t>Mỹ-Duyên</t>
+  </si>
+  <si>
+    <t>Toán</t>
+  </si>
+  <si>
+    <t>Thể dục</t>
+  </si>
+  <si>
+    <t>Tập viết</t>
+  </si>
+  <si>
+    <t>Tập đọc</t>
+  </si>
+  <si>
+    <t>Học vần</t>
+  </si>
+  <si>
+    <t>Mỹ thuật</t>
+  </si>
+  <si>
+    <t>Kỹ thuật</t>
+  </si>
+  <si>
+    <t>Lịch sử</t>
+  </si>
+  <si>
+    <t>Anh văn</t>
+  </si>
+  <si>
+    <t>Nguyễn-Trang</t>
+  </si>
+  <si>
+    <t>Thanh-Khiết</t>
+  </si>
+  <si>
+    <t>Khoa học</t>
+  </si>
+  <si>
+    <t>Thủ công</t>
+  </si>
+  <si>
+    <t>Chính tả</t>
+  </si>
+  <si>
     <t>Thứ 2 Chiều</t>
   </si>
   <si>
+    <t>Thị-Nga</t>
+  </si>
+  <si>
+    <t>Quang-Phú</t>
+  </si>
+  <si>
+    <t>Thị-Hiên</t>
+  </si>
+  <si>
+    <t>Diễm-Lệ</t>
+  </si>
+  <si>
+    <t>Anh-Tùng</t>
+  </si>
+  <si>
+    <t>Tự nhiên xã hội</t>
+  </si>
+  <si>
+    <t>Công-Đức</t>
+  </si>
+  <si>
+    <t>Âm nhạc</t>
+  </si>
+  <si>
+    <t>Văn-Thành</t>
+  </si>
+  <si>
+    <t>Tập đọc kể chuyện</t>
+  </si>
+  <si>
     <t>Thứ 3 Sáng</t>
   </si>
   <si>
+    <t>Luyện từ và câu</t>
+  </si>
+  <si>
+    <t>Kể chuyện</t>
+  </si>
+  <si>
+    <t>Đạo đức</t>
+  </si>
+  <si>
     <t>Thứ 3 Chiều</t>
   </si>
   <si>
     <t>Thứ 4 Sáng</t>
   </si>
   <si>
+    <t>Tập làm văn</t>
+  </si>
+  <si>
     <t>Thứ 4 Chiều</t>
   </si>
   <si>
@@ -87,6 +249,12 @@
   </si>
   <si>
     <t>Thứ 6 Sáng</t>
+  </si>
+  <si>
+    <t>Địa lý</t>
+  </si>
+  <si>
+    <t>Sinh hoạt lớp</t>
   </si>
   <si>
     <t>Thứ 6 Chiều</t>
@@ -509,47 +677,47 @@
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="1"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="1"/>
-    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="5" max="5" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="5" max="5" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="7" max="7" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="7" max="7" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="9" max="9" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="11" max="11" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="10" max="10" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="11" max="11" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="13" max="13" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="14" max="14" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="15" max="15" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="13" max="13" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="1"/>
+    <col min="15" max="15" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="16" max="16" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="17" max="17" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="17" max="17" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="18" max="18" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="19" max="19" width="4.570313" bestFit="true" customWidth="true" style="1"/>
+    <col min="19" max="19" width="18.709717" bestFit="true" customWidth="true" style="1"/>
     <col min="20" max="20" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="21" max="21" width="4.570313" bestFit="true" customWidth="true" style="1"/>
-    <col min="22" max="22" width="11.711426" bestFit="true" customWidth="true" style="1"/>
-    <col min="23" max="23" width="17.567139" bestFit="true" customWidth="true" style="1"/>
-    <col min="24" max="24" width="9.10" bestFit="true" style="1"/>
-    <col min="25" max="25" width="9.10" bestFit="true" style="1"/>
-    <col min="26" max="26" width="9.10" bestFit="true" style="1"/>
-    <col min="27" max="27" width="9.10" bestFit="true" style="1"/>
-    <col min="28" max="28" width="9.10" bestFit="true" style="1"/>
-    <col min="29" max="29" width="9.10" bestFit="true" style="1"/>
-    <col min="30" max="30" width="9.10" bestFit="true" style="1"/>
-    <col min="31" max="31" width="9.10" bestFit="true" style="1"/>
-    <col min="32" max="32" width="9.10" bestFit="true" style="1"/>
-    <col min="33" max="33" width="9.10" bestFit="true" style="1"/>
-    <col min="34" max="34" width="9.10" bestFit="true" style="1"/>
-    <col min="35" max="35" width="9.10" bestFit="true" style="1"/>
-    <col min="36" max="36" width="9.10" bestFit="true" style="1"/>
-    <col min="37" max="37" width="9.10" bestFit="true" style="1"/>
-    <col min="38" max="38" width="9.10" bestFit="true" style="1"/>
-    <col min="39" max="39" width="9.10" bestFit="true" style="1"/>
-    <col min="40" max="40" width="9.10" bestFit="true" style="1"/>
-    <col min="41" max="41" width="9.10" bestFit="true" style="1"/>
-    <col min="42" max="42" width="9.10" bestFit="true" style="1"/>
-    <col min="43" max="43" width="9.10" bestFit="true" style="1"/>
+    <col min="21" max="21" width="21.137695" bestFit="true" customWidth="true" style="1"/>
+    <col min="22" max="22" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="23" max="23" width="21.137695" bestFit="true" customWidth="true" style="1"/>
+    <col min="24" max="24" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="25" max="25" width="21.137695" bestFit="true" customWidth="true" style="1"/>
+    <col min="26" max="26" width="15.281982" bestFit="true" customWidth="true" style="1"/>
+    <col min="27" max="27" width="21.137695" bestFit="true" customWidth="true" style="1"/>
+    <col min="28" max="28" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="29" max="29" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="30" max="30" width="15.281982" bestFit="true" customWidth="true" style="1"/>
+    <col min="31" max="31" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="32" max="32" width="15.281982" bestFit="true" customWidth="true" style="1"/>
+    <col min="33" max="33" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="34" max="34" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="35" max="35" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="36" max="36" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="37" max="37" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="38" max="38" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="39" max="39" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="40" max="40" width="13.996582" bestFit="true" customWidth="true" style="1"/>
+    <col min="41" max="41" width="18.709717" bestFit="true" customWidth="true" style="1"/>
+    <col min="42" max="42" width="11.711426" bestFit="true" customWidth="true" style="1"/>
+    <col min="43" max="43" width="17.567139" bestFit="true" customWidth="true" style="1"/>
     <col min="44" max="44" width="9.10" bestFit="true" style="1"/>
     <col min="45" max="45" width="9.10" bestFit="true" style="1"/>
     <col min="46" max="46" width="9.10" bestFit="true" style="1"/>
@@ -605,6 +773,26 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:69">
       <c r="A3" s="2"/>
@@ -630,6 +818,26 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="2"/>
@@ -655,6 +863,26 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
     </row>
     <row r="5" spans="1:69">
       <c r="A5" s="3" t="s">
@@ -705,213 +933,713 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:69">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="W6" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="5"/>
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ7" s="5"/>
     </row>
     <row r="8" spans="1:69">
       <c r="A8" s="4"/>
       <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ8" s="5"/>
     </row>
     <row r="9" spans="1:69">
       <c r="A9" s="4"/>
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ9" s="5"/>
     </row>
     <row r="10" spans="1:69">
       <c r="A10" s="4"/>
       <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ10" s="5"/>
     </row>
     <row r="11" spans="1:69" customHeight="1" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ11" s="5"/>
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -934,9 +1662,49 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
+      <c r="U12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
     </row>
     <row r="13" spans="1:69">
       <c r="A13" s="4"/>
@@ -961,9 +1729,49 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
     </row>
     <row r="14" spans="1:69">
       <c r="A14" s="4"/>
@@ -988,9 +1796,49 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
     </row>
     <row r="15" spans="1:69">
       <c r="A15" s="4"/>
@@ -1015,9 +1863,49 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
+      <c r="U15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
     </row>
     <row r="16" spans="1:69" customHeight="1" ht="15.75">
       <c r="A16" s="4"/>
@@ -1042,150 +1930,590 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="U16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ17" s="5"/>
     </row>
     <row r="18" spans="1:69">
       <c r="A18" s="4"/>
       <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ18" s="5"/>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" s="4"/>
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ19" s="5"/>
     </row>
     <row r="20" spans="1:69">
       <c r="A20" s="4"/>
       <c r="B20" s="6">
         <v>4</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ20" s="5"/>
     </row>
     <row r="21" spans="1:69" customHeight="1" ht="15.75">
       <c r="A21" s="4"/>
       <c r="B21" s="6">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ21" s="5"/>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -1208,9 +2536,49 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
+      <c r="U22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
     </row>
     <row r="23" spans="1:69">
       <c r="A23" s="4"/>
@@ -1235,9 +2603,49 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
+      <c r="U23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
     </row>
     <row r="24" spans="1:69">
       <c r="A24" s="4"/>
@@ -1262,9 +2670,49 @@
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
+      <c r="U24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
     </row>
     <row r="25" spans="1:69">
       <c r="A25" s="4"/>
@@ -1289,9 +2737,49 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
     </row>
     <row r="26" spans="1:69" customHeight="1" ht="15.75">
       <c r="A26" s="4"/>
@@ -1316,119 +2804,479 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="U26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ27" s="5"/>
     </row>
     <row r="28" spans="1:69">
       <c r="A28" s="4"/>
       <c r="B28" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ28" s="5"/>
     </row>
     <row r="29" spans="1:69">
       <c r="A29" s="4"/>
       <c r="B29" s="6">
         <v>3</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ29" s="5"/>
     </row>
     <row r="30" spans="1:69">
       <c r="A30" s="4"/>
       <c r="B30" s="6">
         <v>4</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
+      <c r="C30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ30" s="5"/>
     </row>
     <row r="31" spans="1:69" customHeight="1" ht="15.75">
       <c r="A31" s="4"/>
@@ -1443,23 +3291,83 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -1482,9 +3390,49 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="U32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
     </row>
     <row r="33" spans="1:69">
       <c r="A33" s="4"/>
@@ -1509,9 +3457,49 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="U33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
     </row>
     <row r="34" spans="1:69">
       <c r="A34" s="4"/>
@@ -1536,9 +3524,49 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
+      <c r="U34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
     </row>
     <row r="35" spans="1:69">
       <c r="A35" s="4"/>
@@ -1563,9 +3591,49 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
+      <c r="U35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
     </row>
     <row r="36" spans="1:69" customHeight="1" ht="15.75">
       <c r="A36" s="4"/>
@@ -1590,119 +3658,475 @@
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
+      <c r="U36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="4" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ37" s="5"/>
     </row>
     <row r="38" spans="1:69">
       <c r="A38" s="4"/>
       <c r="B38" s="6">
         <v>2</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ38" s="5"/>
     </row>
     <row r="39" spans="1:69">
       <c r="A39" s="4"/>
       <c r="B39" s="6">
         <v>3</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ39" s="5"/>
     </row>
     <row r="40" spans="1:69">
       <c r="A40" s="4"/>
       <c r="B40" s="6">
         <v>4</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ40" s="5"/>
     </row>
     <row r="41" spans="1:69" customHeight="1" ht="15.75">
       <c r="A41" s="4"/>
@@ -1730,10 +4154,50 @@
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -1756,9 +4220,49 @@
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
+      <c r="U42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
     </row>
     <row r="43" spans="1:69">
       <c r="A43" s="4"/>
@@ -1783,9 +4287,49 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
+      <c r="U43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
     </row>
     <row r="44" spans="1:69">
       <c r="A44" s="4"/>
@@ -1810,9 +4354,49 @@
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
+      <c r="U44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
     </row>
     <row r="45" spans="1:69">
       <c r="A45" s="4"/>
@@ -1837,9 +4421,49 @@
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+      <c r="U45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
     </row>
     <row r="46" spans="1:69" customHeight="1" ht="15.75">
       <c r="A46" s="4"/>
@@ -1864,119 +4488,475 @@
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="U46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="4" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO47" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ47" s="5"/>
     </row>
     <row r="48" spans="1:69">
       <c r="A48" s="4"/>
       <c r="B48" s="6">
         <v>2</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ48" s="5"/>
     </row>
     <row r="49" spans="1:69">
       <c r="A49" s="4"/>
       <c r="B49" s="6">
         <v>3</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM49" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:69">
       <c r="A50" s="4"/>
       <c r="B50" s="6">
         <v>4</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:69" customHeight="1" ht="15.75">
       <c r="A51" s="4"/>
@@ -2004,10 +4984,46 @@
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -2030,9 +5046,49 @@
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
+      <c r="U52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:69">
       <c r="A53" s="4"/>
@@ -2057,9 +5113,49 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
+      <c r="U53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:69">
       <c r="A54" s="4"/>
@@ -2084,9 +5180,49 @@
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
+      <c r="U54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
     </row>
     <row r="55" spans="1:69">
       <c r="A55" s="4"/>
@@ -2111,9 +5247,49 @@
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
+      <c r="U55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
     </row>
     <row r="56" spans="1:69" customHeight="1" ht="15.75">
       <c r="A56" s="4"/>
@@ -2138,13 +5314,45 @@
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
+      <c r="U56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y56" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="5"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="5"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="5"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="5"/>
+      <c r="AQ56" s="5"/>
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -2170,6 +5378,26 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+      <c r="AJ57" s="5"/>
+      <c r="AK57" s="5"/>
+      <c r="AL57" s="5"/>
+      <c r="AM57" s="5"/>
+      <c r="AN57" s="5"/>
+      <c r="AO57" s="5"/>
+      <c r="AP57" s="5"/>
+      <c r="AQ57" s="5"/>
     </row>
     <row r="58" spans="1:69">
       <c r="A58" s="4"/>
@@ -2197,6 +5425,26 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="5"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="5"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="5"/>
+      <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:69">
       <c r="A59" s="4"/>
@@ -2224,6 +5472,26 @@
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+      <c r="AJ59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AL59" s="5"/>
+      <c r="AM59" s="5"/>
+      <c r="AN59" s="5"/>
+      <c r="AO59" s="5"/>
+      <c r="AP59" s="5"/>
+      <c r="AQ59" s="5"/>
     </row>
     <row r="60" spans="1:69">
       <c r="A60" s="4"/>
@@ -2251,6 +5519,26 @@
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="5"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="5"/>
+      <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:69" customHeight="1" ht="15.75">
       <c r="A61" s="4"/>
@@ -2278,10 +5566,30 @@
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+      <c r="AJ61" s="5"/>
+      <c r="AK61" s="5"/>
+      <c r="AL61" s="5"/>
+      <c r="AM61" s="5"/>
+      <c r="AN61" s="5"/>
+      <c r="AO61" s="5"/>
+      <c r="AP61" s="5"/>
+      <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:69">
       <c r="A62" s="4" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
@@ -2307,6 +5615,26 @@
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="5"/>
+      <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:69">
       <c r="A63" s="4"/>
@@ -2334,6 +5662,26 @@
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
+      <c r="AJ63" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
+      <c r="AM63" s="5"/>
+      <c r="AN63" s="5"/>
+      <c r="AO63" s="5"/>
+      <c r="AP63" s="5"/>
+      <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:69">
       <c r="A64" s="4"/>
@@ -2361,6 +5709,26 @@
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="5"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="5"/>
+      <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:69">
       <c r="A65" s="4"/>
@@ -2388,6 +5756,26 @@
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="5"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
+      <c r="AJ65" s="5"/>
+      <c r="AK65" s="5"/>
+      <c r="AL65" s="5"/>
+      <c r="AM65" s="5"/>
+      <c r="AN65" s="5"/>
+      <c r="AO65" s="5"/>
+      <c r="AP65" s="5"/>
+      <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:69" customHeight="1" ht="15.75">
       <c r="A66" s="4"/>
@@ -2415,6 +5803,26 @@
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
       <c r="W66" s="5"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
     </row>
     <row r="67" spans="1:69">
       <c r="C67" s="1"/>
@@ -2437,6 +5845,26 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AL67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AP67" s="1"/>
     </row>
     <row r="68" spans="1:69">
       <c r="C68" s="1"/>
@@ -2459,6 +5887,26 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
     </row>
     <row r="69" spans="1:69">
       <c r="C69" s="1"/>
@@ -2481,15 +5929,35 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
     </row>
     <row r="70" spans="1:69">
-      <c r="T70" s="2" t="s">
-        <v>27</v>
+      <c r="AN70" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:69">
-      <c r="T71" s="2" t="s">
-        <v>28</v>
+      <c r="AN71" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2519,17 +5987,27 @@
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="W7:W16"/>
-    <mergeCell ref="W17:W26"/>
-    <mergeCell ref="W27:W36"/>
-    <mergeCell ref="W37:W46"/>
-    <mergeCell ref="W47:W56"/>
-    <mergeCell ref="W57:W66"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AQ6"/>
+    <mergeCell ref="AQ7:AQ16"/>
+    <mergeCell ref="AQ17:AQ26"/>
+    <mergeCell ref="AQ27:AQ36"/>
+    <mergeCell ref="AQ37:AQ46"/>
+    <mergeCell ref="AQ47:AQ56"/>
+    <mergeCell ref="AQ57:AQ66"/>
+    <mergeCell ref="AN70:AQ70"/>
+    <mergeCell ref="AN71:AQ71"/>
+    <mergeCell ref="A2:AQ2"/>
+    <mergeCell ref="A3:AQ3"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/public/export/thoikhoabieutruong.xlsx
+++ b/public/export/thoikhoabieutruong.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+  <si>
+    <t>Thời khóa biểu trườngTrường test tiểu học Đông Hòa</t>
+  </si>
+  <si>
+    <t>(Tháng: 11/2020Tuần: 1</t>
+  </si>
   <si>
     <t>Thứ</t>
   </si>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,9 +370,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +673,7 @@
   <dimension ref="A1:BQ71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,11 +749,10 @@
     <col min="69" max="69" width="9.10" bestFit="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
-      <c r="A1" s="7"/>
-    </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -795,7 +797,9 @@
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:69">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -886,280 +890,280 @@
     </row>
     <row r="5" spans="1:69">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:69">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1170,42 +1174,42 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ7" s="5"/>
     </row>
@@ -1215,58 +1219,58 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1277,42 +1281,42 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ8" s="5"/>
     </row>
@@ -1322,58 +1326,58 @@
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="N9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -1384,42 +1388,42 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AN9" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AO9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ9" s="5"/>
     </row>
@@ -1429,58 +1433,58 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="N10" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -1491,42 +1495,42 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF10" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AP10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ10" s="5"/>
     </row>
@@ -1536,58 +1540,58 @@
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -1598,48 +1602,48 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AP11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ11" s="5"/>
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -1663,38 +1667,38 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="W12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="Z12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -1730,38 +1734,38 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -1797,38 +1801,38 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="X14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
@@ -1864,38 +1868,38 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB15" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
@@ -1931,38 +1935,38 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
@@ -1976,64 +1980,64 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -2044,42 +2048,42 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AD17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AL17" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO17" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ17" s="5"/>
     </row>
@@ -2089,58 +2093,58 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
@@ -2151,42 +2155,42 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD18" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF18" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AP18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ18" s="5"/>
     </row>
@@ -2196,58 +2200,58 @@
         <v>3</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -2258,42 +2262,42 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF19" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AD19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF19" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AL19" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO19" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ19" s="5"/>
     </row>
@@ -2303,58 +2307,58 @@
         <v>4</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
@@ -2365,42 +2369,42 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF20" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL20" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AO20" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ20" s="5"/>
     </row>
@@ -2410,58 +2414,58 @@
         <v>5</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
@@ -2472,48 +2476,48 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AL21" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ21" s="5"/>
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2537,38 +2541,38 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB22" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
@@ -2604,38 +2608,38 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="Z23" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
@@ -2671,38 +2675,38 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V24" s="5" t="s">
+      <c r="W24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB24" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -2738,38 +2742,38 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V25" s="5" t="s">
+      <c r="AB25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="X25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
@@ -2805,38 +2809,38 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB26" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
@@ -2850,64 +2854,64 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -2918,42 +2922,42 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD27" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN27" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AO27" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP27" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ27" s="5"/>
     </row>
@@ -2963,58 +2967,58 @@
         <v>2</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="L28" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -3025,42 +3029,42 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN28" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AO28" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ28" s="5"/>
     </row>
@@ -3070,58 +3074,58 @@
         <v>3</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
@@ -3132,42 +3136,42 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF29" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL29" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AN29" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP29" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ29" s="5"/>
     </row>
@@ -3177,58 +3181,58 @@
         <v>4</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="L30" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -3239,42 +3243,42 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE30" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF30" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK30" s="5" t="s">
+      <c r="AO30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AL30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO30" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="AP30" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ30" s="5"/>
     </row>
@@ -3292,34 +3296,34 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
@@ -3330,36 +3334,36 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD31" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AE31" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF31" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AK31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL31" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN31" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
@@ -3367,7 +3371,7 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -3391,38 +3395,38 @@
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB32" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH32" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
@@ -3458,38 +3462,38 @@
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB33" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA33" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB33" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
       <c r="AG33" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH33" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
@@ -3525,38 +3529,38 @@
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V34" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="V34" s="5" t="s">
+      <c r="W34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="X34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB34" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
       <c r="AG34" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH34" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
@@ -3592,38 +3596,38 @@
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB35" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z35" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA35" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="5"/>
       <c r="AG35" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AH35" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
@@ -3659,22 +3663,22 @@
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y36" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -3683,10 +3687,10 @@
       <c r="AE36" s="5"/>
       <c r="AF36" s="5"/>
       <c r="AG36" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AH36" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
@@ -3700,64 +3704,64 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -3768,42 +3772,42 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD37" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM37" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN37" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AO37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP37" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ37" s="5"/>
     </row>
@@ -3813,58 +3817,58 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -3875,42 +3879,42 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD38" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE38" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO38" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AJ38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO38" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="AP38" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ38" s="5"/>
     </row>
@@ -3920,58 +3924,58 @@
         <v>3</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -3982,42 +3986,42 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM39" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AN39" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO39" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AP39" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ39" s="5"/>
     </row>
@@ -4027,58 +4031,58 @@
         <v>4</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -4089,42 +4093,42 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG40" s="5"/>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM40" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AN40" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO40" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AP40" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ40" s="5"/>
     </row>
@@ -4160,36 +4164,36 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN41" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="AL41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN41" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5"/>
@@ -4197,7 +4201,7 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -4221,38 +4225,38 @@
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V42" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB42" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z42" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB42" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
       <c r="AG42" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH42" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
@@ -4288,38 +4292,38 @@
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB43" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z43" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AH43" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
@@ -4355,38 +4359,38 @@
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB44" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB44" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH44" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI44" s="5"/>
       <c r="AJ44" s="5"/>
@@ -4422,38 +4426,38 @@
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB45" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="X45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y45" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
       <c r="AG45" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH45" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI45" s="5"/>
       <c r="AJ45" s="5"/>
@@ -4489,22 +4493,22 @@
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
@@ -4513,10 +4517,10 @@
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AH46" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
@@ -4530,64 +4534,64 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -4598,42 +4602,42 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AD47" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF47" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN47" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AJ47" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN47" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="AO47" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ47" s="5"/>
     </row>
@@ -4643,58 +4647,58 @@
         <v>2</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
@@ -4705,42 +4709,42 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AD48" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE48" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AF48" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG48" s="5"/>
       <c r="AH48" s="5"/>
       <c r="AI48" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK48" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AL48" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM48" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AN48" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO48" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ48" s="5"/>
     </row>
@@ -4750,58 +4754,58 @@
         <v>3</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T49" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -4812,42 +4816,42 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AD49" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE49" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF49" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
       <c r="AI49" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ49" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK49" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL49" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM49" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AN49" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO49" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ49" s="5"/>
     </row>
@@ -4857,58 +4861,58 @@
         <v>4</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="T50" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -4919,42 +4923,42 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD50" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE50" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF50" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG50" s="5"/>
       <c r="AH50" s="5"/>
       <c r="AI50" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AJ50" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK50" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL50" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AM50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN50" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO50" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ50" s="5"/>
     </row>
@@ -4990,30 +4994,30 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AD51" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE51" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AF51" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AG51" s="5"/>
       <c r="AH51" s="5"/>
       <c r="AI51" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK51" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL51" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AM51" s="5"/>
       <c r="AN51" s="5"/>
@@ -5023,7 +5027,7 @@
     </row>
     <row r="52" spans="1:69">
       <c r="A52" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="6">
         <v>1</v>
@@ -5047,38 +5051,38 @@
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB52" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z52" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
       <c r="AG52" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH52" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI52" s="5"/>
       <c r="AJ52" s="5"/>
@@ -5114,38 +5118,38 @@
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y53" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB53" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB53" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
       <c r="AG53" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH53" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI53" s="5"/>
       <c r="AJ53" s="5"/>
@@ -5181,38 +5185,38 @@
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB54" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z54" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA54" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB54" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
       <c r="AG54" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH54" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI54" s="5"/>
       <c r="AJ54" s="5"/>
@@ -5248,38 +5252,38 @@
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB55" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z55" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB55" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
       <c r="AG55" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH55" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AI55" s="5"/>
       <c r="AJ55" s="5"/>
@@ -5315,22 +5319,22 @@
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y56" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -5352,7 +5356,7 @@
     </row>
     <row r="57" spans="1:69">
       <c r="A57" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -5589,7 +5593,7 @@
     </row>
     <row r="62" spans="1:69">
       <c r="A62" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
@@ -5952,12 +5956,12 @@
     </row>
     <row r="70" spans="1:69">
       <c r="AN70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:69">
       <c r="AN71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6008,7 +6012,6 @@
     <mergeCell ref="AN71:AQ71"/>
     <mergeCell ref="A2:AQ2"/>
     <mergeCell ref="A3:AQ3"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.15748031496063" right="0.15748031496063" top="0.15748031496063" bottom="0.15748031496063" header="0.315" footer="0.315"/>
